--- a/Rascunhos/Requisitos - resumo final.xlsx
+++ b/Rascunhos/Requisitos - resumo final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/efapro01.24/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\negocios\Rascunhos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F812978F-95A7-4563-9443-919F54BC4420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E96A07-166E-415A-873A-D018782142BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8280" yWindow="3700" windowWidth="28240" windowHeight="17240" xr2:uid="{B73CE04A-0DC2-084C-93CF-A747039A3992}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="17010" windowHeight="18285" xr2:uid="{B73CE04A-0DC2-084C-93CF-A747039A3992}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -375,7 +375,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -384,12 +384,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="12">
@@ -529,7 +541,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -545,17 +557,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -890,1520 +913,1720 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9301CABF-E821-0D46-8402-C0CDF7611A84}">
-  <dimension ref="A1:H106"/>
+  <dimension ref="A1:I106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2:F60"/>
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B58" sqref="B58:I60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.625" customWidth="1"/>
+    <col min="2" max="2" width="46.625" customWidth="1"/>
+    <col min="7" max="7" width="4.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="F1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
       <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
         <v>10</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
       <c r="C4" t="s">
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
         <v>10</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
         <v>10</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>19</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>21</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>19</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" t="s">
         <v>21</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" t="s">
         <v>21</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>19</v>
       </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
       <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" t="s">
         <v>21</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>19</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>20</v>
       </c>
-      <c r="D10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" t="s">
         <v>26</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>9</v>
       </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
       <c r="D11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" t="s">
         <v>26</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.75">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
       <c r="C12" t="s">
         <v>8</v>
       </c>
       <c r="D12" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" t="s">
         <v>26</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.75">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>19</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>20</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>26</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15.75">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>19</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>20</v>
       </c>
-      <c r="D14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>31</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.75">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>9</v>
       </c>
-      <c r="C15" t="s">
-        <v>8</v>
-      </c>
       <c r="D15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" t="s">
         <v>31</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.75">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>9</v>
       </c>
-      <c r="C16" t="s">
-        <v>8</v>
-      </c>
       <c r="D16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" t="s">
         <v>31</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B17" t="s">
-        <v>16</v>
-      </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D17" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="E17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" t="s">
         <v>31</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15.75">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="D18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" t="s">
         <v>36</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15.75">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="D19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" t="s">
         <v>36</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.75">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="D20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" t="s">
         <v>36</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" t="s">
         <v>36</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="B22" t="s">
-        <v>9</v>
       </c>
       <c r="C22" t="s">
         <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" t="s">
         <v>41</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="B23" t="s">
-        <v>9</v>
       </c>
       <c r="C23" t="s">
         <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" t="s">
         <v>41</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15.75">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="B24" t="s">
-        <v>9</v>
       </c>
       <c r="C24" t="s">
         <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" t="s">
         <v>41</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15.75">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>9</v>
       </c>
-      <c r="C25" t="s">
-        <v>8</v>
-      </c>
       <c r="D25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>41</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" t="s">
+      <c r="C26" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" s="17" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B27" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" t="s">
+      <c r="C27" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" s="17" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15.75">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="1:8" ht="15.75">
-      <c r="A29" s="4" t="s">
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B29" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" t="s">
-        <v>15</v>
-      </c>
-      <c r="D29" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" t="s">
+      <c r="C29" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" s="17" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15.75">
-      <c r="A30" s="4" t="s">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="B30" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" t="s">
-        <v>15</v>
-      </c>
-      <c r="D30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" t="s">
+      <c r="C30" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" s="17" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15.75">
-      <c r="A31" s="4" t="s">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B31" t="s">
-        <v>16</v>
-      </c>
       <c r="C31" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D31" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" t="s">
         <v>52</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15.75">
-      <c r="A32" s="4" t="s">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B32" t="s">
-        <v>16</v>
-      </c>
       <c r="C32" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D32" t="s">
-        <v>13</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" t="s">
         <v>52</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15.75">
-      <c r="A33" s="4" t="s">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B33" t="s">
-        <v>16</v>
-      </c>
       <c r="C33" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" t="s">
         <v>52</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15.75">
-      <c r="A34" s="5" t="s">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E34" s="2"/>
-    </row>
-    <row r="35" spans="1:8" ht="15.75">
-      <c r="A35" s="4" t="s">
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B35" t="s">
-        <v>16</v>
-      </c>
       <c r="C35" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D35" t="s">
-        <v>13</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" t="s">
         <v>52</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15.75">
-      <c r="A36" s="4" t="s">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B36" t="s">
-        <v>16</v>
-      </c>
       <c r="C36" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D36" t="s">
-        <v>13</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" t="s">
         <v>56</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="15.75">
-      <c r="A37" s="4" t="s">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B37" t="s">
-        <v>16</v>
-      </c>
       <c r="C37" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D37" t="s">
-        <v>13</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H37" t="s">
         <v>56</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="15.75">
-      <c r="A38" s="4" t="s">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B38" t="s">
-        <v>16</v>
-      </c>
       <c r="C38" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D38" t="s">
-        <v>13</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G38" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H38" t="s">
         <v>56</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="15.75">
-      <c r="A39" s="4" t="s">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B39" t="s">
-        <v>16</v>
-      </c>
       <c r="C39" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D39" t="s">
-        <v>13</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H39" t="s">
         <v>56</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="15.75">
-      <c r="A40" s="1" t="s">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E40" s="2"/>
-    </row>
-    <row r="41" spans="1:8" ht="15.75">
-      <c r="A41" s="4" t="s">
+      <c r="F40" s="2"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B41" t="s">
-        <v>16</v>
-      </c>
       <c r="C41" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D41" t="s">
         <v>15</v>
       </c>
-      <c r="E41" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" t="s">
+      <c r="E41" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H41" t="s">
         <v>59</v>
       </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="15.75">
-      <c r="A42" s="4" t="s">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B42" t="s">
-        <v>16</v>
-      </c>
       <c r="C42" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D42" t="s">
         <v>15</v>
       </c>
-      <c r="E42" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" t="s">
+      <c r="E42" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H42" t="s">
         <v>59</v>
       </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="15.75">
-      <c r="A43" s="4" t="s">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B43" t="s">
-        <v>16</v>
-      </c>
       <c r="C43" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D43" t="s">
         <v>15</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G43" t="s">
+      <c r="E43" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H43" t="s">
         <v>59</v>
       </c>
-      <c r="H43" t="s">
+      <c r="I43" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="15.75">
-      <c r="A44" s="4" t="s">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B44" t="s">
-        <v>16</v>
-      </c>
       <c r="C44" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D44" t="s">
         <v>15</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44" t="s">
+      <c r="E44" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H44" t="s">
         <v>59</v>
       </c>
-      <c r="H44" t="s">
+      <c r="I44" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="15.75">
-      <c r="A45" s="4" t="s">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B45" t="s">
-        <v>16</v>
-      </c>
       <c r="C45" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D45" t="s">
         <v>15</v>
       </c>
-      <c r="E45" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G45" t="s">
+      <c r="E45" t="s">
+        <v>15</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H45" t="s">
         <v>11</v>
       </c>
-      <c r="H45" t="s">
+      <c r="I45" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="15.75">
-      <c r="A46" s="4" t="s">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B46" t="s">
-        <v>16</v>
-      </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D46" t="s">
         <v>8</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G46" t="s">
+      <c r="E46" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H46" t="s">
         <v>11</v>
       </c>
-      <c r="H46" t="s">
+      <c r="I46" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="15.75">
-      <c r="A47" s="4" t="s">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B47" t="s">
-        <v>16</v>
-      </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D47" t="s">
         <v>8</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G47" t="s">
+      <c r="E47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H47" t="s">
         <v>11</v>
       </c>
-      <c r="H47" t="s">
+      <c r="I47" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="15.75">
-      <c r="A48" s="1"/>
-      <c r="E48" s="2"/>
-    </row>
-    <row r="49" spans="1:8" ht="15.75">
-      <c r="A49" s="6" t="s">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="F48" s="2"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E49" s="2"/>
-    </row>
-    <row r="50" spans="1:8" ht="15.75">
-      <c r="A50" s="4" t="s">
+      <c r="F49" s="2"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B50" t="s">
-        <v>16</v>
-      </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D50" t="s">
-        <v>13</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G50" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H50" t="s">
         <v>11</v>
       </c>
-      <c r="H50" t="s">
+      <c r="I50" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="15.75">
-      <c r="A51" s="4" t="s">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B51" t="s">
-        <v>16</v>
-      </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D51" t="s">
-        <v>13</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H51" t="s">
         <v>67</v>
       </c>
-      <c r="H51" t="s">
+      <c r="I51" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="15.75">
-      <c r="A52" s="4" t="s">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B52" t="s">
-        <v>16</v>
-      </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D52" t="s">
-        <v>13</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G52" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H52" t="s">
         <v>67</v>
       </c>
-      <c r="H52" t="s">
+      <c r="I52" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="15.75">
-      <c r="A53" s="4" t="s">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B53" t="s">
-        <v>16</v>
-      </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D53" t="s">
-        <v>13</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G53" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H53" t="s">
         <v>67</v>
       </c>
-      <c r="H53" t="s">
+      <c r="I53" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="15.75">
-      <c r="A54" s="4" t="s">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B54" t="s">
-        <v>16</v>
-      </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D54" t="s">
-        <v>13</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G54" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H54" t="s">
         <v>67</v>
       </c>
-      <c r="H54" t="s">
+      <c r="I54" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="15.75">
-      <c r="A55" s="4" t="s">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B55" t="s">
-        <v>16</v>
-      </c>
-      <c r="C55" t="s">
-        <v>8</v>
-      </c>
-      <c r="D55" t="s">
-        <v>13</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="15.75">
-      <c r="A56" s="4" t="s">
+      <c r="C55" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D55" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F55" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G55" s="14"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="14"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C56" t="s">
-        <v>16</v>
-      </c>
-      <c r="D56" t="s">
-        <v>15</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="15.75">
-      <c r="A57" s="4" t="s">
+      <c r="D56" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E56" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F56" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G56" s="14"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="14"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="B57" t="s">
-        <v>16</v>
-      </c>
-      <c r="C57" t="s">
-        <v>15</v>
-      </c>
-      <c r="D57" t="s">
-        <v>16</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="15.75">
-      <c r="A58" s="4" t="s">
+      <c r="C57" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E57" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F57" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G57" s="17"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="17"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="B58" t="s">
-        <v>16</v>
-      </c>
-      <c r="C58" t="s">
-        <v>15</v>
-      </c>
-      <c r="D58" t="s">
-        <v>13</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="15.75">
-      <c r="A59" s="4" t="s">
+      <c r="C58" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D58" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E58" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G58" s="17"/>
+      <c r="H58" s="17"/>
+      <c r="I58" s="17"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="B59" t="s">
-        <v>16</v>
-      </c>
-      <c r="C59" t="s">
-        <v>15</v>
-      </c>
-      <c r="D59" t="s">
-        <v>13</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="15.75">
-      <c r="A60" s="7" t="s">
+      <c r="C59" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D59" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E59" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G59" s="17"/>
+      <c r="H59" s="17"/>
+      <c r="I59" s="17"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="B60" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E60" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="15.75"/>
-    <row r="62" spans="1:8" ht="15.75">
-      <c r="A62" s="15" t="s">
+      <c r="C60" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D60" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E60" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G60" s="17"/>
+      <c r="H60" s="17"/>
+      <c r="I60" s="17"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B62" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="15.75">
-      <c r="A63" s="10"/>
-    </row>
-    <row r="64" spans="1:8" ht="15.75">
-      <c r="A64" s="10" t="s">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B63" s="7"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B64" s="7" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="15.75">
-      <c r="A65" s="10" t="s">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B65" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="15.75">
-      <c r="A66" s="10" t="s">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B66" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="15.75">
-      <c r="A67" s="10" t="s">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B67" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="15.75">
-      <c r="A68" s="11" t="s">
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B68" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="15.75">
-      <c r="A69" t="s">
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
         <v>88</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="15.75">
-      <c r="A70" t="s">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
         <v>90</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
-      <c r="A73" t="s">
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
         <v>79</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
-      <c r="A74" t="s">
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
         <v>92</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
-      <c r="A76" t="s">
+    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
         <v>80</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C76" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
-      <c r="A77" t="s">
+    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
         <v>95</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
-      <c r="A79" t="s">
+    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
         <v>88</v>
       </c>
-      <c r="B79" t="s">
+      <c r="C79" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
-      <c r="A80" t="s">
+    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
         <v>97</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
-      <c r="A81" t="s">
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
         <v>98</v>
       </c>
-      <c r="C81" t="s">
+      <c r="D81" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="30.75">
-      <c r="A82" s="3" t="s">
+    <row r="82" spans="2:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B82" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D82" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="30.75">
-      <c r="A83" s="3" t="s">
+    <row r="83" spans="2:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B83" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="15.75"/>
-    <row r="85" spans="1:3" ht="15.75">
-      <c r="A85" t="s">
+    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="46.5">
-      <c r="A86" s="3" t="s">
+    <row r="86" spans="2:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B86" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C86" t="s">
+      <c r="D86" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="30.75">
-      <c r="A87" s="3" t="s">
+    <row r="87" spans="2:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B87" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C87" t="s">
+      <c r="D87" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="30.75">
-      <c r="A88" s="3" t="s">
+    <row r="88" spans="2:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B88" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C88" t="s">
+      <c r="D88" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
-      <c r="A89" t="s">
+    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
         <v>104</v>
       </c>
-      <c r="C89" t="s">
+      <c r="D89" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="10" t="s">
+    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B93" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="B93" t="s">
+      <c r="C93" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
-      <c r="A94" t="s">
+    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
         <v>105</v>
       </c>
-      <c r="C94" t="s">
+      <c r="D94" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
-      <c r="A95" t="s">
+    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
         <v>106</v>
       </c>
-      <c r="C95" t="s">
+      <c r="D95" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="15.75"/>
-    <row r="98" spans="1:3" ht="15.75">
-      <c r="A98" s="11" t="s">
+    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B98" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B98" t="s">
+      <c r="C98" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="15.75">
-      <c r="A99" t="s">
+    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
         <v>107</v>
       </c>
-      <c r="C99" t="s">
+      <c r="D99" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
-      <c r="A100" t="s">
+    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
         <v>108</v>
       </c>
-      <c r="C100" t="s">
+      <c r="D100" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
-      <c r="A104" t="s">
+    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
         <v>90</v>
       </c>
-      <c r="B104" t="s">
+      <c r="C104" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
-      <c r="A105" t="s">
+    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
         <v>109</v>
       </c>
-      <c r="C105" t="s">
+      <c r="D105" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
-      <c r="A106" t="s">
+    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
         <v>110</v>
       </c>
-      <c r="C106" t="s">
+      <c r="D106" t="s">
         <v>93</v>
       </c>
     </row>

--- a/Rascunhos/Requisitos - resumo final.xlsx
+++ b/Rascunhos/Requisitos - resumo final.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\negocios\Rascunhos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisn\Desktop\GitClones\negocios\Rascunhos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E96A07-166E-415A-873A-D018782142BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{965EB6B7-7DBB-4F72-BA9E-5ACF60B6830E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="17010" windowHeight="18285" xr2:uid="{B73CE04A-0DC2-084C-93CF-A747039A3992}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B73CE04A-0DC2-084C-93CF-A747039A3992}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -916,17 +916,17 @@
   <dimension ref="A1:I106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B58" sqref="B58:I60"/>
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="46.625" customWidth="1"/>
-    <col min="7" max="7" width="4.75" customWidth="1"/>
+    <col min="2" max="2" width="46.59765625" customWidth="1"/>
+    <col min="7" max="7" width="4.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
@@ -949,7 +949,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -975,7 +975,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1001,7 +1001,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1027,7 +1027,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1053,7 +1053,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1105,7 +1105,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1131,7 +1131,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1157,7 +1157,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1209,7 +1209,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1235,7 +1235,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1261,7 +1261,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1287,7 +1287,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1313,7 +1313,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1339,7 +1339,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1365,7 +1365,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1391,7 +1391,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1417,7 +1417,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1443,7 +1443,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1521,7 +1521,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1547,7 +1547,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1573,7 +1573,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1600,7 +1600,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1627,7 +1627,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B28" s="16" t="s">
         <v>49</v>
       </c>
@@ -1639,7 +1639,7 @@
       <c r="H28" s="17"/>
       <c r="I28" s="17"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1666,7 +1666,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1693,7 +1693,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1719,7 +1719,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1745,7 +1745,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1771,18 +1771,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>32</v>
-      </c>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B34" s="5" t="s">
         <v>55</v>
       </c>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>2</v>
@@ -1806,9 +1803,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>50</v>
@@ -1832,9 +1829,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>51</v>
@@ -1858,9 +1855,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>53</v>
@@ -1884,9 +1881,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>54</v>
@@ -1910,18 +1907,18 @@
         <v>52</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>57</v>
       </c>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>58</v>
@@ -1945,9 +1942,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>60</v>
@@ -1971,9 +1968,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>2</v>
@@ -1997,9 +1994,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>61</v>
@@ -2023,9 +2020,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>53</v>
@@ -2049,9 +2046,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>62</v>
@@ -2075,9 +2072,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>63</v>
@@ -2101,25 +2098,25 @@
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B48" s="1"/>
       <c r="F48" s="2"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>64</v>
       </c>
       <c r="F49" s="2"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>65</v>
@@ -2143,9 +2140,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>66</v>
@@ -2169,9 +2166,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>68</v>
@@ -2195,9 +2192,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>69</v>
@@ -2221,9 +2218,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>70</v>
@@ -2247,9 +2244,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B55" s="13" t="s">
         <v>71</v>
@@ -2270,9 +2267,9 @@
       <c r="H55" s="14"/>
       <c r="I55" s="14"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B56" s="13" t="s">
         <v>72</v>
@@ -2293,9 +2290,9 @@
       <c r="H56" s="14"/>
       <c r="I56" s="14"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B57" s="19" t="s">
         <v>73</v>
@@ -2316,9 +2313,9 @@
       <c r="H57" s="17"/>
       <c r="I57" s="17"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B58" s="19" t="s">
         <v>74</v>
@@ -2339,9 +2336,9 @@
       <c r="H58" s="17"/>
       <c r="I58" s="17"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B59" s="19" t="s">
         <v>75</v>
@@ -2362,9 +2359,9 @@
       <c r="H59" s="17"/>
       <c r="I59" s="17"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B60" s="20" t="s">
         <v>76</v>
@@ -2385,7 +2382,12 @@
       <c r="H60" s="17"/>
       <c r="I60" s="17"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B62" s="12" t="s">
         <v>77</v>
       </c>
@@ -2393,15 +2395,15 @@
         <v>78</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B63" s="7"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B64" s="7" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B65" s="7" t="s">
         <v>80</v>
       </c>
@@ -2409,7 +2411,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B66" s="7" t="s">
         <v>82</v>
       </c>
@@ -2417,7 +2419,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B67" s="7" t="s">
         <v>84</v>
       </c>
@@ -2425,7 +2427,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B68" s="8" t="s">
         <v>86</v>
       </c>
@@ -2433,7 +2435,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
         <v>88</v>
       </c>
@@ -2441,7 +2443,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
         <v>90</v>
       </c>
@@ -2449,7 +2451,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
         <v>79</v>
       </c>
@@ -2457,7 +2459,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
         <v>92</v>
       </c>
@@ -2465,7 +2467,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
         <v>80</v>
       </c>
@@ -2473,7 +2475,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
         <v>95</v>
       </c>
@@ -2481,7 +2483,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
         <v>88</v>
       </c>
@@ -2489,7 +2491,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
         <v>97</v>
       </c>
@@ -2497,7 +2499,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
         <v>98</v>
       </c>
@@ -2505,7 +2507,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="82" spans="2:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B82" s="3" t="s">
         <v>99</v>
       </c>
@@ -2513,7 +2515,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="83" spans="2:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B83" s="3" t="s">
         <v>100</v>
       </c>
@@ -2521,12 +2523,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B85" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="86" spans="2:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="B86" s="3" t="s">
         <v>101</v>
       </c>
@@ -2534,7 +2536,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="87" spans="2:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B87" s="3" t="s">
         <v>102</v>
       </c>
@@ -2542,7 +2544,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="88" spans="2:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B88" s="3" t="s">
         <v>103</v>
       </c>
@@ -2550,7 +2552,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B89" t="s">
         <v>104</v>
       </c>
@@ -2558,7 +2560,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B93" s="7" t="s">
         <v>84</v>
       </c>
@@ -2566,7 +2568,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B94" t="s">
         <v>105</v>
       </c>
@@ -2574,7 +2576,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B95" t="s">
         <v>106</v>
       </c>
@@ -2582,7 +2584,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B98" s="8" t="s">
         <v>86</v>
       </c>
@@ -2590,7 +2592,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B99" t="s">
         <v>107</v>
       </c>
@@ -2598,7 +2600,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B100" t="s">
         <v>108</v>
       </c>
@@ -2606,7 +2608,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B104" t="s">
         <v>90</v>
       </c>
@@ -2614,7 +2616,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B105" t="s">
         <v>109</v>
       </c>
@@ -2622,7 +2624,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B106" t="s">
         <v>110</v>
       </c>

--- a/Rascunhos/Requisitos - resumo final.xlsx
+++ b/Rascunhos/Requisitos - resumo final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisn\Desktop\GitClones\negocios\Rascunhos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{965EB6B7-7DBB-4F72-BA9E-5ACF60B6830E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCEF23A5-EC30-4BCE-B69D-985E71F65471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B73CE04A-0DC2-084C-93CF-A747039A3992}"/>
   </bookViews>
@@ -916,8 +916,8 @@
   <dimension ref="A1:I106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M31" sqref="M31"/>
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A50" sqref="A50:A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1908,9 +1908,6 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>37</v>
-      </c>
       <c r="B40" s="1" t="s">
         <v>57</v>
       </c>
@@ -1918,7 +1915,7 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>58</v>
@@ -1944,7 +1941,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>60</v>
@@ -1970,7 +1967,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>2</v>
@@ -1996,7 +1993,7 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>61</v>
@@ -2022,7 +2019,7 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>53</v>
@@ -2048,7 +2045,7 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>62</v>
@@ -2074,7 +2071,7 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>63</v>
@@ -2100,15 +2097,12 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B48" s="1"/>
       <c r="F48" s="2"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>46</v>
-      </c>
       <c r="B49" s="6" t="s">
         <v>64</v>
       </c>
@@ -2116,7 +2110,7 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>65</v>
@@ -2142,7 +2136,7 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>66</v>
@@ -2168,7 +2162,7 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>68</v>
@@ -2194,7 +2188,7 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>69</v>
@@ -2220,7 +2214,7 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>70</v>
@@ -2246,7 +2240,7 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B55" s="13" t="s">
         <v>71</v>
@@ -2269,7 +2263,7 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B56" s="13" t="s">
         <v>72</v>
@@ -2292,7 +2286,7 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B57" s="19" t="s">
         <v>73</v>
@@ -2315,7 +2309,7 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B58" s="19" t="s">
         <v>74</v>
@@ -2338,7 +2332,7 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B59" s="19" t="s">
         <v>75</v>
@@ -2361,7 +2355,7 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B60" s="20" t="s">
         <v>76</v>
@@ -2384,10 +2378,13 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>57</v>
+      </c>
       <c r="B62" s="12" t="s">
         <v>77</v>
       </c>
@@ -2396,6 +2393,9 @@
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>58</v>
+      </c>
       <c r="B63" s="7"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
